--- a/tester.xlsx
+++ b/tester.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eng12\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eng12\OneDrive\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="171">
   <si>
     <t>Software QA Checklist</t>
   </si>
@@ -628,9 +628,6 @@
     <t>Make add a new todo 6 times</t>
   </si>
   <si>
-    <t xml:space="preserve">the box of page 1 and 2 under box of test2 straight to the right place </t>
-  </si>
-  <si>
     <t>the box of page 1 and 2 at the end of page Todo on sentence no available Todos</t>
   </si>
   <si>
@@ -713,6 +710,16 @@
   <si>
     <t>The box of number page from 1 to 5 in page 1 contain tasks from Test25 to Test21 and page 5 contain tasks Test5 to Test1
 When we press on box number of pages still same and not do anything. We can not know any page we press on it.</t>
+  </si>
+  <si>
+    <t>the box of page 1 and 2 under box of test2 straight to the right place 
+and under the box number pager we must not found no available todo</t>
+  </si>
+  <si>
+    <t>the box of page 1 and 2 at the end of page Todo on sentence no available Todos and find no available todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1196,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1197,23 +1204,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1245,46 +1235,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2672,7 +2625,7 @@
         <v>127</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2701,7 +2654,7 @@
         <v>137</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2724,100 +2677,100 @@
         <v>144</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="34" t="s">
+      <c r="H27" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>154</v>
-      </c>
       <c r="I27" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="G28" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="H28" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="I28" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E29" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>160</v>
-      </c>
       <c r="G29" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2834,137 +2787,137 @@
     <mergeCell ref="G2:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I18">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I18">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I18">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2977,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AI12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK14" sqref="AK14:AO14"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3235,7 @@
         <v>50</v>
       </c>
       <c r="W8" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X8" s="59"/>
       <c r="Y8" s="59"/>
@@ -3292,7 +3245,7 @@
         <v>50</v>
       </c>
       <c r="AD8" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE8" s="59"/>
       <c r="AF8" s="59"/>
@@ -3302,7 +3255,7 @@
         <v>50</v>
       </c>
       <c r="AK8" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL8" s="59"/>
       <c r="AM8" s="59"/>
@@ -3344,7 +3297,7 @@
         <v>51</v>
       </c>
       <c r="W9" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X9" s="59"/>
       <c r="Y9" s="59"/>
@@ -3354,7 +3307,7 @@
         <v>51</v>
       </c>
       <c r="AD9" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE9" s="59"/>
       <c r="AF9" s="59"/>
@@ -3364,7 +3317,7 @@
         <v>51</v>
       </c>
       <c r="AK9" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL9" s="59"/>
       <c r="AM9" s="59"/>
@@ -3416,7 +3369,7 @@
         <v>52</v>
       </c>
       <c r="AD10" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE10" s="57"/>
       <c r="AF10" s="57"/>
@@ -3426,7 +3379,7 @@
         <v>52</v>
       </c>
       <c r="AK10" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL10" s="57"/>
       <c r="AM10" s="57"/>
@@ -3468,7 +3421,7 @@
         <v>53</v>
       </c>
       <c r="W11" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X11" s="57"/>
       <c r="Y11" s="57"/>
@@ -3478,7 +3431,7 @@
         <v>53</v>
       </c>
       <c r="AD11" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
@@ -3488,7 +3441,7 @@
         <v>53</v>
       </c>
       <c r="AK11" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL11" s="57"/>
       <c r="AM11" s="57"/>
@@ -3530,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="W12" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X12" s="59"/>
       <c r="Y12" s="59"/>
@@ -3540,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="AD12" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE12" s="59"/>
       <c r="AF12" s="59"/>
@@ -3550,7 +3503,7 @@
         <v>16</v>
       </c>
       <c r="AK12" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL12" s="59"/>
       <c r="AM12" s="59"/>
@@ -3786,7 +3739,7 @@
         <v>57</v>
       </c>
       <c r="AK16" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -628,16 +628,10 @@
     <t>Make add a new todo 6 times</t>
   </si>
   <si>
-    <t>the box of page 1 and 2 at the end of page Todo on sentence no available Todos</t>
-  </si>
-  <si>
     <t xml:space="preserve">I open todo page and make add a new Todo 6 times and I see the number of pages not in the right place bottom the box of test2 but in bottom page on no available todos </t>
   </si>
   <si>
     <t>It happense in all the browsers and all screen views I made it in other browser and still same result</t>
-  </si>
-  <si>
-    <t>the box of page 1 and 2 under box of test2 straight to the right place</t>
   </si>
   <si>
     <t>Tc_021</t>
@@ -712,14 +706,19 @@
 When we press on box number of pages still same and not do anything. We can not know any page we press on it.</t>
   </si>
   <si>
-    <t>the box of page 1 and 2 under box of test2 straight to the right place 
-and under the box number pager we must not found no available todo</t>
-  </si>
-  <si>
-    <t>the box of page 1 and 2 at the end of page Todo on sentence no available Todos and find no available todos</t>
-  </si>
-  <si>
     <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The sentence of "no available todos" must be not appeared</t>
+  </si>
+  <si>
+    <t>"no available todos" appeared</t>
+  </si>
+  <si>
+    <t>The sentence of "no available todos" must be not appeared</t>
+  </si>
+  <si>
+    <t>Aor high</t>
   </si>
 </sst>
 </file>
@@ -1138,59 +1137,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2677,39 +2676,39 @@
         <v>144</v>
       </c>
       <c r="G26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="I26" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>151</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>46</v>
@@ -2717,28 +2716,28 @@
     </row>
     <row r="28" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="H28" s="34" t="s">
         <v>159</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>161</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>46</v>
@@ -2746,28 +2745,28 @@
     </row>
     <row r="29" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>133</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G29" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>164</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>166</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>46</v>
@@ -2930,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView topLeftCell="AI12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14:AO14"/>
+    <sheetView tabSelected="1" topLeftCell="N11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2975,720 +2974,720 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="H3" s="52" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="H3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="O3" s="52" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="O3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="V3" s="52" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="V3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AC3" s="52" t="s">
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AC3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AJ3" s="52" t="s">
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AJ3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
     </row>
     <row r="6" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
     </row>
     <row r="7" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="H7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
       <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
       <c r="V7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="56" t="s">
+      <c r="W7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
       <c r="AC7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="56" t="s">
+      <c r="AD7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
       <c r="AJ7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="56" t="s">
+      <c r="AK7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
     </row>
     <row r="8" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
       <c r="H8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="O8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
       <c r="V8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
+      <c r="W8" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
       <c r="AC8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
+      <c r="AD8" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
       <c r="AJ8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AK8" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
+      <c r="AK8" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
     </row>
     <row r="9" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="H9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
       <c r="O9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
       <c r="V9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
+      <c r="W9" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
       <c r="AC9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
+      <c r="AD9" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
       <c r="AJ9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AK9" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
+      <c r="AK9" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
     </row>
     <row r="10" spans="1:41" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
       <c r="H10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
       <c r="O10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="68" t="s">
+      <c r="P10" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
       <c r="V10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="58" t="s">
+      <c r="W10" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
       <c r="AC10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD10" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
+      <c r="AD10" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
       <c r="AJ10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AK10" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
+      <c r="AK10" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
     </row>
     <row r="11" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
       <c r="H11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
       <c r="O11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
       <c r="V11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
+      <c r="W11" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
       <c r="AC11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AD11" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
+      <c r="AD11" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
       <c r="AJ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AK11" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
+      <c r="AK11" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
     </row>
     <row r="12" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
       <c r="O12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="61" t="s">
+      <c r="P12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
       <c r="V12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
+      <c r="W12" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
       <c r="AC12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD12" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
+      <c r="AD12" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
       <c r="AJ12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AK12" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
+      <c r="AK12" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
     </row>
     <row r="13" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="H13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
       <c r="O13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
       <c r="V13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="W13" s="60" t="s">
+      <c r="W13" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
       <c r="AC13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AD13" s="60" t="s">
+      <c r="AD13" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
       <c r="AJ13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AK13" s="60" t="s">
+      <c r="AK13" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
     </row>
     <row r="14" spans="1:41" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="H14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
       <c r="O14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="64"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="61"/>
       <c r="V14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="64"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
       <c r="AC14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="64"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="61"/>
       <c r="AJ14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="64"/>
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="61"/>
     </row>
     <row r="15" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="H15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
       <c r="O15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="65" t="s">
+      <c r="P15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
       <c r="V15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="65" t="s">
+      <c r="W15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
       <c r="AC15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AD15" s="65" t="s">
+      <c r="AD15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
       <c r="AJ15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AK15" s="65" t="s">
+      <c r="AK15" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
     </row>
     <row r="16" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="41"/>
@@ -3698,7 +3697,7 @@
       <c r="H16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="52" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="41"/>
@@ -3708,7 +3707,7 @@
       <c r="O16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="52" t="s">
         <v>140</v>
       </c>
       <c r="Q16" s="41"/>
@@ -3718,8 +3717,8 @@
       <c r="V16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="66" t="s">
-        <v>63</v>
+      <c r="W16" s="52" t="s">
+        <v>170</v>
       </c>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
@@ -3728,7 +3727,7 @@
       <c r="AC16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AD16" s="66" t="s">
+      <c r="AD16" s="52" t="s">
         <v>140</v>
       </c>
       <c r="AE16" s="41"/>
@@ -3738,8 +3737,8 @@
       <c r="AJ16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="66" t="s">
-        <v>162</v>
+      <c r="AK16" s="52" t="s">
+        <v>160</v>
       </c>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
@@ -3750,7 +3749,7 @@
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="41"/>
@@ -3760,7 +3759,7 @@
       <c r="H17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="52" t="s">
         <v>116</v>
       </c>
       <c r="J17" s="41"/>
@@ -3770,7 +3769,7 @@
       <c r="O17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="66" t="s">
+      <c r="P17" s="52" t="s">
         <v>116</v>
       </c>
       <c r="Q17" s="41"/>
@@ -3780,7 +3779,7 @@
       <c r="V17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="66" t="s">
+      <c r="W17" s="52" t="s">
         <v>116</v>
       </c>
       <c r="X17" s="41"/>
@@ -3790,7 +3789,7 @@
       <c r="AC17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="66" t="s">
+      <c r="AD17" s="52" t="s">
         <v>116</v>
       </c>
       <c r="AE17" s="41"/>
@@ -3800,7 +3799,7 @@
       <c r="AJ17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK17" s="66" t="s">
+      <c r="AK17" s="52" t="s">
         <v>116</v>
       </c>
       <c r="AL17" s="41"/>
@@ -3809,7 +3808,7 @@
       <c r="AO17" s="42"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="44"/>
@@ -3817,7 +3816,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="44"/>
@@ -3825,7 +3824,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-      <c r="O18" s="54" t="s">
+      <c r="O18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="P18" s="44"/>
@@ -3833,7 +3832,7 @@
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
-      <c r="V18" s="54" t="s">
+      <c r="V18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="W18" s="44"/>
@@ -3841,7 +3840,7 @@
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
-      <c r="AC18" s="54" t="s">
+      <c r="AC18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="AD18" s="44"/>
@@ -3849,7 +3848,7 @@
       <c r="AF18" s="44"/>
       <c r="AG18" s="44"/>
       <c r="AH18" s="44"/>
-      <c r="AJ18" s="54" t="s">
+      <c r="AJ18" s="53" t="s">
         <v>65</v>
       </c>
       <c r="AK18" s="44"/>
@@ -3859,134 +3858,173 @@
       <c r="AO18" s="44"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="55"/>
-      <c r="AH19" s="55"/>
-      <c r="AJ19" s="55"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AK16:AO16"/>
-    <mergeCell ref="AK17:AO17"/>
-    <mergeCell ref="AJ18:AO21"/>
-    <mergeCell ref="AK11:AO11"/>
-    <mergeCell ref="AK12:AO12"/>
-    <mergeCell ref="AK13:AO13"/>
-    <mergeCell ref="AK14:AO14"/>
-    <mergeCell ref="AK15:AO15"/>
-    <mergeCell ref="AJ3:AO6"/>
-    <mergeCell ref="AK7:AO7"/>
-    <mergeCell ref="AK8:AO8"/>
-    <mergeCell ref="AK9:AO9"/>
-    <mergeCell ref="AK10:AO10"/>
+    <mergeCell ref="V3:AA6"/>
+    <mergeCell ref="V18:AA21"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="A3:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H3:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="H18:M21"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="O3:T6"/>
+    <mergeCell ref="O18:T21"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
     <mergeCell ref="AC3:AH6"/>
     <mergeCell ref="AC18:AH21"/>
     <mergeCell ref="AD7:AH7"/>
@@ -4000,58 +4038,19 @@
     <mergeCell ref="AD15:AH15"/>
     <mergeCell ref="AD16:AH16"/>
     <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="O3:T6"/>
-    <mergeCell ref="O18:T21"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="H18:M21"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="H3:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="A3:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="V3:AA6"/>
-    <mergeCell ref="V18:AA21"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AJ3:AO6"/>
+    <mergeCell ref="AK7:AO7"/>
+    <mergeCell ref="AK8:AO8"/>
+    <mergeCell ref="AK9:AO9"/>
+    <mergeCell ref="AK10:AO10"/>
+    <mergeCell ref="AK16:AO16"/>
+    <mergeCell ref="AK17:AO17"/>
+    <mergeCell ref="AJ18:AO21"/>
+    <mergeCell ref="AK11:AO11"/>
+    <mergeCell ref="AK12:AO12"/>
+    <mergeCell ref="AK13:AO13"/>
+    <mergeCell ref="AK14:AO14"/>
+    <mergeCell ref="AK15:AO15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -530,9 +530,6 @@
     <t>It happense in all the browsers and all screen views</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>C or low</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>Aor high</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -1137,59 +1137,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2574,25 +2574,25 @@
         <v>113</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>114</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>44</v>
@@ -2600,28 +2600,28 @@
     </row>
     <row r="24" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>126</v>
-      </c>
       <c r="D24" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>114</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>46</v>
@@ -2629,28 +2629,28 @@
     </row>
     <row r="25" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="E25" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="F25" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="H25" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>137</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>46</v>
@@ -2658,57 +2658,57 @@
     </row>
     <row r="26" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="F26" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="G26" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>168</v>
-      </c>
       <c r="I26" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="D27" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="F27" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="34" t="s">
+      <c r="H27" s="34" t="s">
         <v>150</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>151</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>46</v>
@@ -2716,28 +2716,28 @@
     </row>
     <row r="28" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="F28" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="G28" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="H28" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>159</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>46</v>
@@ -2745,28 +2745,28 @@
     </row>
     <row r="29" spans="1:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="34" t="s">
+      <c r="D29" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="33" t="s">
+      <c r="F29" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>157</v>
-      </c>
       <c r="G29" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>46</v>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16:AA16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2974,720 +2974,720 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="H3" s="63" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="H3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="O3" s="63" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="O3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="V3" s="63" t="s">
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="V3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AC3" s="63" t="s">
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AC3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AJ3" s="63" t="s">
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AJ3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
     </row>
     <row r="6" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
-      <c r="AM6" s="64"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
     </row>
     <row r="7" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="H7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
       <c r="V7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
       <c r="AC7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="65" t="s">
+      <c r="AD7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
       <c r="AJ7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AK7" s="65" t="s">
+      <c r="AK7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
     </row>
     <row r="8" spans="1:41" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="H8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="I8" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
       <c r="O8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
+      <c r="P8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
       <c r="V8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
+      <c r="W8" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
       <c r="AC8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
+      <c r="AD8" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
       <c r="AJ8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AK8" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
+      <c r="AK8" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
     </row>
     <row r="9" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="H9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="O9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="66" t="s">
+      <c r="P9" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
       <c r="V9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
+      <c r="W9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
       <c r="AC9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
+      <c r="AD9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
       <c r="AJ9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AK9" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
+      <c r="AK9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
     </row>
     <row r="10" spans="1:41" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="H10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="I10" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="O10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
+      <c r="P10" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
       <c r="V10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W10" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
+      <c r="W10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
       <c r="AC10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD10" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
+      <c r="AD10" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
       <c r="AJ10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AK10" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
+      <c r="AK10" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
     </row>
     <row r="11" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="H11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="I11" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
       <c r="O11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
+      <c r="P11" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
       <c r="V11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
+      <c r="W11" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
       <c r="AC11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AD11" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
+      <c r="AD11" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
       <c r="AJ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AK11" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
+      <c r="AK11" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
     </row>
     <row r="12" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="H12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="I12" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
       <c r="O12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
+      <c r="P12" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
       <c r="V12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W12" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
+      <c r="W12" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
       <c r="AC12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AD12" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
+      <c r="AD12" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
       <c r="AJ12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AK12" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
+      <c r="AK12" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
     </row>
     <row r="13" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="H13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
       <c r="O13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
+      <c r="P13" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
       <c r="V13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="W13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
+      <c r="W13" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
       <c r="AC13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AD13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
+      <c r="AD13" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
       <c r="AJ13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AK13" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
+      <c r="AK13" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
     </row>
     <row r="14" spans="1:41" ht="265.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="H14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
       <c r="O14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
       <c r="V14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="64"/>
       <c r="AC14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="61"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="64"/>
       <c r="AJ14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="61"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="64"/>
     </row>
     <row r="15" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
       <c r="O15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="62" t="s">
+      <c r="P15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
       <c r="V15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="62" t="s">
+      <c r="W15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
       <c r="AC15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AD15" s="62" t="s">
+      <c r="AD15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
       <c r="AJ15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AK15" s="62" t="s">
+      <c r="AK15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
     </row>
     <row r="16" spans="1:41" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="66" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="41"/>
@@ -3697,8 +3697,8 @@
       <c r="H16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="52" t="s">
-        <v>117</v>
+      <c r="I16" s="66" t="s">
+        <v>116</v>
       </c>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
@@ -3707,8 +3707,8 @@
       <c r="O16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="52" t="s">
-        <v>140</v>
+      <c r="P16" s="66" t="s">
+        <v>139</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
@@ -3717,8 +3717,8 @@
       <c r="V16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="52" t="s">
-        <v>170</v>
+      <c r="W16" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="X16" s="41"/>
       <c r="Y16" s="41"/>
@@ -3727,8 +3727,8 @@
       <c r="AC16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AD16" s="52" t="s">
-        <v>140</v>
+      <c r="AD16" s="66" t="s">
+        <v>139</v>
       </c>
       <c r="AE16" s="41"/>
       <c r="AF16" s="41"/>
@@ -3737,8 +3737,8 @@
       <c r="AJ16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="52" t="s">
-        <v>160</v>
+      <c r="AK16" s="66" t="s">
+        <v>159</v>
       </c>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
@@ -3749,7 +3749,7 @@
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="66" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="41"/>
@@ -3759,8 +3759,8 @@
       <c r="H17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>116</v>
+      <c r="I17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -3769,8 +3769,8 @@
       <c r="O17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="52" t="s">
-        <v>116</v>
+      <c r="P17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
@@ -3779,8 +3779,8 @@
       <c r="V17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="52" t="s">
-        <v>116</v>
+      <c r="W17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="X17" s="41"/>
       <c r="Y17" s="41"/>
@@ -3789,8 +3789,8 @@
       <c r="AC17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD17" s="52" t="s">
-        <v>116</v>
+      <c r="AD17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="AE17" s="41"/>
       <c r="AF17" s="41"/>
@@ -3799,8 +3799,8 @@
       <c r="AJ17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK17" s="52" t="s">
-        <v>116</v>
+      <c r="AK17" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
@@ -3808,7 +3808,7 @@
       <c r="AO17" s="42"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="44"/>
@@ -3816,7 +3816,7 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="44"/>
@@ -3824,7 +3824,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="P18" s="44"/>
@@ -3832,7 +3832,7 @@
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
-      <c r="V18" s="53" t="s">
+      <c r="V18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="W18" s="44"/>
@@ -3840,7 +3840,7 @@
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
-      <c r="AC18" s="53" t="s">
+      <c r="AC18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="AD18" s="44"/>
@@ -3848,7 +3848,7 @@
       <c r="AF18" s="44"/>
       <c r="AG18" s="44"/>
       <c r="AH18" s="44"/>
-      <c r="AJ18" s="53" t="s">
+      <c r="AJ18" s="54" t="s">
         <v>65</v>
       </c>
       <c r="AK18" s="44"/>
@@ -3858,121 +3858,186 @@
       <c r="AO18" s="44"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="AK16:AO16"/>
+    <mergeCell ref="AK17:AO17"/>
+    <mergeCell ref="AJ18:AO21"/>
+    <mergeCell ref="AK11:AO11"/>
+    <mergeCell ref="AK12:AO12"/>
+    <mergeCell ref="AK13:AO13"/>
+    <mergeCell ref="AK14:AO14"/>
+    <mergeCell ref="AK15:AO15"/>
+    <mergeCell ref="AJ3:AO6"/>
+    <mergeCell ref="AK7:AO7"/>
+    <mergeCell ref="AK8:AO8"/>
+    <mergeCell ref="AK9:AO9"/>
+    <mergeCell ref="AK10:AO10"/>
+    <mergeCell ref="AC3:AH6"/>
+    <mergeCell ref="AC18:AH21"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="O3:T6"/>
+    <mergeCell ref="O18:T21"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="H18:M21"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="H3:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A3:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="V3:AA6"/>
     <mergeCell ref="V18:AA21"/>
     <mergeCell ref="W7:AA7"/>
@@ -3986,71 +4051,6 @@
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="W17:AA17"/>
     <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="A3:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H3:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="H18:M21"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="O3:T6"/>
-    <mergeCell ref="O18:T21"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="AC3:AH6"/>
-    <mergeCell ref="AC18:AH21"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="AJ3:AO6"/>
-    <mergeCell ref="AK7:AO7"/>
-    <mergeCell ref="AK8:AO8"/>
-    <mergeCell ref="AK9:AO9"/>
-    <mergeCell ref="AK10:AO10"/>
-    <mergeCell ref="AK16:AO16"/>
-    <mergeCell ref="AK17:AO17"/>
-    <mergeCell ref="AJ18:AO21"/>
-    <mergeCell ref="AK11:AO11"/>
-    <mergeCell ref="AK12:AO12"/>
-    <mergeCell ref="AK13:AO13"/>
-    <mergeCell ref="AK14:AO14"/>
-    <mergeCell ref="AK15:AO15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
